--- a/project/channels, groups, suppliers .xlsx
+++ b/project/channels, groups, suppliers .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\PycharmProjects\MnrwOrdersFlow\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C0B15-0F70-42D6-AC93-56D96AD06479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB91E23F-6F0F-407F-91C3-F3D6B1EF046F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>TVP</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>channelPossibleName</t>
+  </si>
+  <si>
+    <t>w imporcie zleceń makro</t>
   </si>
 </sst>
 </file>
@@ -424,11 +427,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +441,7 @@
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -451,8 +454,11 @@
       <c r="D1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -466,7 +472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -474,7 +480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -485,7 +491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -499,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -510,7 +516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -518,7 +524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -532,7 +538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -543,7 +549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>21</v>
       </c>
